--- a/articles.xlsx
+++ b/articles.xlsx
@@ -363,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,13 +379,19 @@
         <v>3</v>
       </c>
       <c r="C1">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D1">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -393,13 +399,19 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -407,10 +419,16 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
